--- a/backend/股票603596_杜邦分析全量数据.xlsx
+++ b/backend/股票603596_杜邦分析全量数据.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>89,149.24万</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>52,233.86万</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>27,036.12万</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>120,885.13万</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>77,802.92万</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>45,744.87万</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>20,991.79万</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>89,149.81万</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>59,488.16万</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>35,557.08万</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
